--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
   </si>
@@ -36,6 +36,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -53,6 +58,54 @@
   <si>
     <t>3号</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6号</t>
+    </r>
+  </si>
+  <si>
+    <t>7号</t>
+  </si>
+  <si>
+    <t>8号</t>
+  </si>
+  <si>
+    <t>9号</t>
+  </si>
+  <si>
+    <t>10号</t>
+  </si>
+  <si>
+    <t>11号</t>
+  </si>
 </sst>
 </file>
 
@@ -65,7 +118,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -94,6 +147,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -243,6 +303,12 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -550,152 +616,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +773,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1026,13 +1095,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="10.7789473684211" style="1"/>
   </cols>
@@ -1073,6 +1142,70 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
